--- a/Task 1/System Tests.xlsx
+++ b/Task 1/System Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogus\Documents\Testing\LeapDev QA Task\LeapDev-Quality-Engineer-Task\Task 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A63A9A-8162-4432-A58F-EE6EB597488D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A7AA3A-4EAB-4D0F-AD31-8809E44CD3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
   <si>
     <t>Project name</t>
   </si>
@@ -99,43 +99,22 @@
     <t>Register a valid user</t>
   </si>
   <si>
-    <t>1) Visit https://demoqa.com/register
-2) User is not logged in</t>
-  </si>
-  <si>
     <t>1. User is registered</t>
   </si>
   <si>
     <t>Passed</t>
   </si>
   <si>
-    <t>1. Enter UserName
-2. Enter Password
-3. Click on login button</t>
-  </si>
-  <si>
     <t>LeapDev_SystemTests_01</t>
   </si>
   <si>
     <t>LeapDev_SystemTests_01_001</t>
-  </si>
-  <si>
-    <t>Verify functionalities of Book Store Application</t>
   </si>
   <si>
     <t>Fist Name: b
 Last Name: b
 UserName: b
 Passoword: Mypassword1!</t>
-  </si>
-  <si>
-    <t>1. Enter First Name
-2. Enter Last Name
-3. Enter UserName
-4. Enter Password
-5. Verify reCaptcha
-6. Click on register button
-7. In Network in dev tools message request POST with status code 201 Created is visible; Payload contains provided userName and password</t>
   </si>
   <si>
     <t>LeapDev_SystemTests_01_002</t>
@@ -260,11 +239,6 @@
 2) User is not logged in</t>
   </si>
   <si>
-    <t>1. Type Username and Invalid passoword
-2 .Click on login button
-3. Login is incomplete and a message with invalid data should be visible</t>
-  </si>
-  <si>
     <t>UserName: b
 Invalid password: Mypassword1</t>
   </si>
@@ -274,12 +248,6 @@
   <si>
     <t>1. User is registered
 2. All popups, requests and responses are visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. User is redirected to page with Profile section
-2. In Network in dev tools message Generate Token; request method: POST with response status code 200 OK is visible; Payload contains provided userName and password
-3. In Network in dev tools message Login; request method: POST with response status code 200 OK is visible; Payload contains provided userName and password
-</t>
   </si>
   <si>
     <t>1. User is logged in
@@ -345,10 +313,67 @@
 note: user has multiple book added to his profile</t>
   </si>
   <si>
+    <t>1. All books are removed from the table
+2. All popups and requests are visible</t>
+  </si>
+  <si>
+    <t>1. All books are removed from the table
+2. All popup, requests and responses are visible</t>
+  </si>
+  <si>
+    <t>UserName: z
+Passoword: Mypassword1!
+userId (changed): e2841c5c-5803-4d01-836d-6bf034008301</t>
+  </si>
+  <si>
+    <t>LeapDev_SystemTests_01_009</t>
+  </si>
+  <si>
+    <t>LeapDev_SystemTests_01_010</t>
+  </si>
+  <si>
+    <t>1. Click on trash icon next to the chosen book
+2. Popup to delete this book is visible
+3. Click OK
+4. Message Book, request method: DELETE, with response status 204 No Content is visible, Payload contains userId and bookId (isbn)
+5. Popup with delete confirmation is visible
+6. Click OK
+7. Book is no longer visible in the table
+8. Navigate to book store
+9. Add the previously deleted book
+10. Book was added successfully
+11. Navigate to Profile Section and check if book is added again</t>
+  </si>
+  <si>
+    <t>UserName: b
+Passoword: Mypassword1!
+Book: "Git Pocket Guide"
+userId (changed): eead58cc-a793-4c6e-863a-681907820a96
+BookIsbn: 9781449325862</t>
+  </si>
+  <si>
+    <t>1. Navigate to the page page of one of book that was already added
+2. Click on button to add book to your collection
+3. Popup with message that book is in user's collection is visible
+4. Click OK on the pop-up
+5. Message Books, request method: POST with the response status code equal 400 Bad Request is visible; Payload contains userId and bookId (isbn)
+6. Click on the Profile section
+7. Only one position of the previously added book is visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName: b
+Passoword: Mypassword1!
+userId: eead58cc-a793-4c6e-863a-681907820a96
+Books added: 1) Git Pocket Guide, 
+2) Learning JavaScript Design Patterns, 
+3) Designing Evolvable Web APIs with ASP.NET
+</t>
+  </si>
+  <si>
     <t>1. Click on Delete All Books button which is below the table
 2. Pop to delete all book is visible
 3. Click Cancel button
-4. Popup is disappears
+4. Popup disappears
 5. Repeat steps 1-2
 6. Click OK button
 7. Popup to delete confirmation is visible
@@ -365,20 +390,67 @@
 18. Both popups disappear</t>
   </si>
   <si>
-    <t>1. All books are removed from the table
-2. All popups and requests are visible</t>
-  </si>
-  <si>
-    <t>1. All books are removed from the table
-2. All popup, requests and responses are visible</t>
-  </si>
-  <si>
-    <t>Delete account</t>
-  </si>
-  <si>
-    <t>UserName: z
-Passoword: Mypassword1!
-userId (changed): e2841c5c-5803-4d01-836d-6bf034008301</t>
+    <t xml:space="preserve">1. All popups and requests are visible
+</t>
+  </si>
+  <si>
+    <t>Verify functionalities of Book Store Application as a whole system</t>
+  </si>
+  <si>
+    <t>1) Visit https://demoqa.com/register
+2) User is not logged in
+3) User with test data credentials in not created</t>
+  </si>
+  <si>
+    <t>1. Enter First Name
+2. Enter Last Name
+3. Enter UserName
+4. Enter Password
+5. Verify reCaptcha
+6. Click on register button
+7. In Network in dev tools check message User, request method: POST with status code 201 Created is visible; Payload contains provided userName and password</t>
+  </si>
+  <si>
+    <t>Passed
+note: user credentials shouldn't be visible in the payload</t>
+  </si>
+  <si>
+    <t>Passed
+note: user credentials shouldn't be visible in the network dev tools</t>
+  </si>
+  <si>
+    <t>Log out</t>
+  </si>
+  <si>
+    <t>1. User is redirected to login page with empty credentials</t>
+  </si>
+  <si>
+    <t>LeapDev_SystemTests_01_011</t>
+  </si>
+  <si>
+    <t>1. Type Username and Invalid passoword
+2 .Click on login button
+3. Login is incomplete and a message with invalid data should be visible
+4. In Network in dev tools check message Generate Token; request method: POST with response status code 200 OK is visible; Payload contains provided userName and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User is redirected to page with Profile section
+</t>
+  </si>
+  <si>
+    <t>1. Enter UserName
+2. Enter Password
+3. Click on login button
+4. In Network in dev tools check message Generate Token; request method: POST with response status code 200 OK is visible; Payload contains provided userName and password
+5. In Network in dev tools check message Login; request method: POST with response status code 200 OK is visible; Payload contains provided userName and password</t>
+  </si>
+  <si>
+    <t>1. There is a message visible that user is logged in
+2. Click on a button to log out
+3. In Network in dev tools check message Generate Token; request method: POST with response status code 200 OK is visible; Payload contains provided userName and password</t>
+  </si>
+  <si>
+    <t>Delete account and create new one with the same credentials</t>
   </si>
   <si>
     <t>1. Click on Delete Account button which is below the table
@@ -390,64 +462,8 @@
 7. Popup with delete confimation is visible
 8. Click OK
 9. User is redirected to https://demoqa.com/login
-10. In dev tools check message request DELETE; Request Url contains userId
-11. Try to login with previous credentials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. User is unable with that credentials
-2. Account is deleted
-3. All popups and requests are visible
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. User is unable with that credentials
-2. Account is deleted
-3. All popup, requests and responses are visible
-</t>
-  </si>
-  <si>
-    <t>LeapDev_SystemTests_01_009</t>
-  </si>
-  <si>
-    <t>LeapDev_SystemTests_01_010</t>
-  </si>
-  <si>
-    <t>1. Click on trash icon next to the chosen book
-2. Popup to delete this book is visible
-3. Click OK
-4. Message Book, request method: DELETE, with response status 204 No Content is visible, Payload contains userId and bookId (isbn)
-5. Popup with delete confirmation is visible
-6. Click OK
-7. Book is no longer visible in the table
-8. Navigate to book store
-9. Add the previously deleted book
-10. Book was added successfully
-11. Navigate to Profile Section and check if book is added again</t>
-  </si>
-  <si>
-    <t>UserName: b
-Passoword: Mypassword1!
-Book: "Git Pocket Guide"
-userId (changed): eead58cc-a793-4c6e-863a-681907820a96
-BookIsbn: 9781449325862</t>
-  </si>
-  <si>
-    <t>1. Navigate to the page page of one of book that was already added
-2. Click on button to add book to your collection
-3. Popup with message that book is in user's collection is visible
-4. Click OK on the pop-up
-5. Message Books, request method: POST with the response status code equal 400 Bad Request is visible; Payload contains userId and bookId (isbn)
-6. Click on the Profile section
-7. Only one position of the previously added book is visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UserName: b
-Passoword: Mypassword1!
-userId: eead58cc-a793-4c6e-863a-681907820a96
-Books added: 1) Git Pocket Guide, 
-2) Learning JavaScript Design Patterns, 
-3) Designing Evolvable Web APIs with ASP.NET
-</t>
+10. In dev tools check message with userId, request method: DELETE; Status Code: 204 No Content, Request Url contains userId
+11. Repeat test case LeapDev_SystemTests_01_001 with credentials of the deleted account</t>
   </si>
 </sst>
 </file>
@@ -575,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -612,9 +628,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -629,6 +642,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,19 +929,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N22"/>
+  <dimension ref="B3:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" customWidth="1"/>
     <col min="8" max="8" width="46.5703125" customWidth="1"/>
     <col min="9" max="9" width="31.5703125" customWidth="1"/>
@@ -1022,39 +1041,39 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>26</v>
+      <c r="L13" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>5</v>
@@ -1063,35 +1082,35 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>26</v>
+        <v>63</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>5</v>
@@ -1100,144 +1119,142 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>62</v>
+      <c r="J15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="8">
         <v>45097</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>37</v>
+      <c r="D16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>42</v>
+        <v>91</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="13">
         <v>45097</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="153" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="102" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>26</v>
+      <c r="K17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="13">
         <v>45097</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="11" t="s">
+    <row r="18" spans="2:14" ht="153" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>44</v>
+      <c r="E18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>26</v>
+        <v>55</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>5</v>
@@ -1246,35 +1263,35 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12" t="s">
-        <v>57</v>
+    <row r="19" spans="2:14" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>5</v>
@@ -1283,114 +1300,151 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="19" t="s">
+      <c r="J20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>5</v>
       </c>
       <c r="N20" s="8">
         <v>45097</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="E21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="19" t="s">
+      <c r="I21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="18" t="s">
         <v>5</v>
       </c>
       <c r="N21" s="8">
         <v>45097</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="I22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="8">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="19" t="s">
+      <c r="J23" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N23" s="8">
         <v>45097</v>
       </c>
     </row>
